--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class_project\pythonProject\class_23\class_23_ui_frame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09525A-4F63-4405-8BB1-BB1302F4E198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1A720-57D8-4E1A-99B4-34ADE8D9B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10046" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.31.178:8090/forum.php</t>
+    <t>http://192.168.0.107:8090/forum.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
